--- a/PrantikVM/InliningRateAlphaDecay.xlsx
+++ b/PrantikVM/InliningRateAlphaDecay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_f5\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_25b\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3DCB4BC-CE5D-4D18-8C20-A351D7BC2797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A6500D-DDA3-4C80-8047-43107455F668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -102,43 +102,61 @@
     <t>Inlining_Rate_For_Best_Runtime</t>
   </si>
   <si>
+    <t>Run number</t>
+  </si>
+  <si>
+    <t>serial_markingqueuedirps_1.bpl.bpl.txt</t>
+  </si>
+  <si>
+    <t>TIMEDOUT</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>lambda0.3</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>sys_zwregistrycreate_0.bpl.bpl.txt</t>
+  </si>
+  <si>
+    <t>hw_irqliopassive2_0.bpl.bpl.txt</t>
+  </si>
+  <si>
+    <t>lambda0.055</t>
+  </si>
+  <si>
+    <t>parzip_nsremovelockmnremove_0.bpl.bpl.txt</t>
+  </si>
+  <si>
+    <t>lambda0.005</t>
+  </si>
+  <si>
+    <t>mp_iobuildfsdirpsignaleventincompletiontimeout_0.bpl.bpl.txt</t>
+  </si>
+  <si>
+    <t>lambda0.025</t>
+  </si>
+  <si>
     <t>Imapi_removelockrelease2_0.bpl.bpl.txt</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>TIMEDOUT</t>
-  </si>
-  <si>
     <t>lambda0.01</t>
   </si>
   <si>
-    <t>parzip_nsremovelockmnremove_0.bpl.bpl.txt</t>
-  </si>
-  <si>
-    <t>lambda0.005</t>
-  </si>
-  <si>
-    <t>sys_zwregistrycreate_0.bpl.bpl.txt</t>
-  </si>
-  <si>
-    <t>lambda0.3</t>
-  </si>
-  <si>
-    <t>serial_markingqueuedirps_1.bpl.bpl.txt</t>
-  </si>
-  <si>
-    <t>hw_irqliopassive2_0.bpl.bpl.txt</t>
-  </si>
-  <si>
-    <t>lambda0.055</t>
-  </si>
-  <si>
-    <t>mp_iobuildfsdirpsignaleventincompletiontimeout_0.bpl.bpl.txt</t>
-  </si>
-  <si>
-    <t>lambda0.025</t>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run4</t>
+  </si>
+  <si>
+    <t>Run5</t>
   </si>
 </sst>
 </file>
@@ -463,7 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,24 +499,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF875D5D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -687,6 +705,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -740,19 +795,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -798,7 +871,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf/>
     <dxf>
       <border>
@@ -815,8 +888,30 @@
         </left>
       </border>
     </dxf>
-    <dxf/>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
       <border>
         <left style="medium">
           <color rgb="FF000000"/>
@@ -832,13 +927,6 @@
       </border>
     </dxf>
     <dxf/>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-      </border>
-    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -863,32 +951,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7596D158-BFE7-4A0C-9242-CFAD486DB3D5}" name="Table1" displayName="Table1" ref="A1:W7" totalsRowShown="0">
-  <autoFilter ref="A1:W7" xr:uid="{3D5D7E44-1739-4B8A-8D45-C7BA0029495B}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{F9FBE50B-1A13-48B3-AD9A-2DF180B013DF}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C825E194-2A2F-4E8D-9F5A-974F17DF8814}" name="lambda0.005_Outcome" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7E7358B5-747C-4D4E-B2D7-DF19DE09EF56}" name="lambda0.01_Outcome"/>
-    <tableColumn id="4" xr3:uid="{167A5355-9363-48CE-AE16-D1316072382A}" name="lambda0.025_Outcome"/>
-    <tableColumn id="5" xr3:uid="{A46C5D45-604D-4C39-A9EB-5EB862674027}" name="lambda0.055_Outcome"/>
-    <tableColumn id="6" xr3:uid="{D3445927-C40F-4C07-9BB2-4DBCD1A44A69}" name="lambda0.3_Outcome" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{1C14FD84-17F9-41C6-8790-6F5CCEB81492}" name="lambda0.005_TotalSplits" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C4E55992-AC5C-4433-9339-1A516E59A54E}" name="lambda0.01_TotalSplits"/>
-    <tableColumn id="9" xr3:uid="{AFF6BB96-3841-4D97-A9C3-A0C232E5013E}" name="lambda0.025_TotalSplits"/>
-    <tableColumn id="10" xr3:uid="{740BD8D8-20E5-4A9B-997A-E241F8EAB5BA}" name="lambda0.055_TotalSplits"/>
-    <tableColumn id="11" xr3:uid="{3E111443-72B6-4BA0-A8C8-8500F640C2C5}" name="lambda0.3_TotalSplits" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{CC2407B2-3C6D-4F26-B518-07FBFDEBC296}" name="lambda0.005_Runtime" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{69D503E0-F020-4608-B375-68DF2F81AD95}" name="lambda0.01_Runtime"/>
-    <tableColumn id="14" xr3:uid="{2111A9FE-3182-4BF0-B0FE-AA2D853365CC}" name="lambda0.025_Runtime"/>
-    <tableColumn id="15" xr3:uid="{E91B19B6-FD66-4CC0-857E-72AAEDFD3D3C}" name="lambda0.055_Runtime"/>
-    <tableColumn id="16" xr3:uid="{81F112B5-35BA-4BDA-A9C2-F50153D5468C}" name="lambda0.3_Runtime" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{E32362DF-63EB-40B5-8156-869672B9C68E}" name="lambda0.005_Inlining_Rate" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{931734BE-CAEC-4DB5-80CA-C0F272F6F715}" name="lambda0.01_Inlining_Rate"/>
-    <tableColumn id="19" xr3:uid="{6CE83800-CF29-4A68-B3FE-18E3DC2ADADC}" name="lambda0.025_Inlining_Rate"/>
-    <tableColumn id="20" xr3:uid="{40D05CDC-9B26-4617-93BC-22BA94F42BD2}" name="lambda0.055_Inlining_Rate"/>
-    <tableColumn id="21" xr3:uid="{B75D919C-FD3F-4975-B7FC-8642447294BE}" name="lambda0.3_Inlining_Rate" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{F6C5E183-00B4-49D4-91BF-FFC16232421A}" name="Who_Performed_Better" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{FED446FB-F873-4606-8BE5-29601754A315}" name="Inlining_Rate_For_Best_Runtime" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F27F032-3C55-4AEE-A26A-1E135A0E3825}" name="Table1" displayName="Table1" ref="A1:X31" totalsRowShown="0">
+  <autoFilter ref="A1:X31" xr:uid="{305EAEA0-AE69-4303-939B-AEBD99D5E2E2}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{2C5D0AA5-5F47-4BE8-8D8A-96A516FB8491}" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{337DA489-B693-4078-A999-631BCE099794}" name="lambda0.005_Outcome"/>
+    <tableColumn id="3" xr3:uid="{8DF14CE2-9702-4229-87AB-1884EB541114}" name="lambda0.01_Outcome"/>
+    <tableColumn id="4" xr3:uid="{3FB02682-D60D-49D7-A222-B2F32D51F4B6}" name="lambda0.025_Outcome"/>
+    <tableColumn id="5" xr3:uid="{A8DCF96C-4212-442A-92A8-A98BBD1E3AC7}" name="lambda0.055_Outcome"/>
+    <tableColumn id="6" xr3:uid="{EF31EBB2-A75D-4E5E-80E8-38ECCABF8FD8}" name="lambda0.3_Outcome" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A99DFEEF-1502-48FF-8D78-DF73B6022051}" name="lambda0.005_TotalSplits" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{7B3A731A-BC3E-4E22-BFB9-B0AB19810E49}" name="lambda0.01_TotalSplits"/>
+    <tableColumn id="9" xr3:uid="{0B33976E-5B94-495A-A237-875811D8A123}" name="lambda0.025_TotalSplits"/>
+    <tableColumn id="10" xr3:uid="{67F6A4DB-E081-4C73-AE36-9E9B88C85F57}" name="lambda0.055_TotalSplits"/>
+    <tableColumn id="11" xr3:uid="{7EC07E32-5156-46A3-8458-CFB667A3CD1B}" name="lambda0.3_TotalSplits" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{88B7E54C-F178-4348-94DC-F07C23CA3CA6}" name="lambda0.005_Runtime" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{89B98896-A363-44A8-A085-9A84EDF66636}" name="lambda0.01_Runtime" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{C35C6422-05E3-45E9-8777-1C04D0BE11C1}" name="lambda0.025_Runtime" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{0C109510-653C-473F-9E8B-B977CB8DFCA3}" name="lambda0.055_Runtime" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{6AD2ACE2-239C-476D-A6F6-53A179CD5E17}" name="lambda0.3_Runtime" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{F1D78D93-C4F8-4435-9878-E1FA9204E656}" name="lambda0.005_Inlining_Rate" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{C41E3122-D975-417B-A3F4-C08742E45F42}" name="lambda0.01_Inlining_Rate"/>
+    <tableColumn id="19" xr3:uid="{45488AA9-4E86-4CB6-BFD1-AC71DEB8E721}" name="lambda0.025_Inlining_Rate"/>
+    <tableColumn id="20" xr3:uid="{2E498EEC-5F9E-4A97-98C5-710ECF675FDE}" name="lambda0.055_Inlining_Rate"/>
+    <tableColumn id="21" xr3:uid="{6235CD6F-6BE6-4D11-A0B6-EE1F3E49EA22}" name="lambda0.3_Inlining_Rate" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{2FAF74E3-03EE-40C1-BE9D-2444A2FE1175}" name="Who_Performed_Better" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{81252A92-F612-4561-A057-170FF0BDDC6A}" name="Inlining_Rate_For_Best_Runtime"/>
+    <tableColumn id="24" xr3:uid="{130E9503-24D2-4C83-8CD7-26F651F0552D}" name="Run number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,40 +1280,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1251,22 +1341,22 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1287,434 +1377,2231 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1670</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1899</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1819</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1522</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1592</v>
+      </c>
+      <c r="L2" s="9">
+        <v>3597.6468049999999</v>
+      </c>
+      <c r="M2" s="10">
+        <v>3597.656293</v>
+      </c>
+      <c r="N2" s="10">
+        <v>3597.702655</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3597.6139109999999</v>
+      </c>
+      <c r="P2" s="21">
+        <v>3367.3739929999902</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>19.022808815991699</v>
+      </c>
+      <c r="R2" s="2">
+        <v>22.408717105263101</v>
+      </c>
+      <c r="S2" s="2">
+        <v>22.570501622161199</v>
+      </c>
+      <c r="T2" s="2">
+        <v>19.3378684807256</v>
+      </c>
+      <c r="U2" s="20">
+        <v>18.733505154639101</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="2">
+        <v>18.733505154639101</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4">
+        <v>86</v>
+      </c>
+      <c r="H3" s="5">
+        <v>90</v>
+      </c>
+      <c r="I3" s="5">
+        <v>87</v>
+      </c>
+      <c r="J3" s="5">
+        <v>37</v>
+      </c>
+      <c r="K3" s="19">
+        <v>29</v>
+      </c>
+      <c r="L3" s="11">
+        <v>3598.7679629999998</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2191.832437</v>
+      </c>
+      <c r="N3" s="12">
+        <v>3598.6946509999998</v>
+      </c>
+      <c r="O3" s="12">
+        <v>3457.450621</v>
+      </c>
+      <c r="P3" s="22">
+        <v>273.337671</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>7.6452830188679197</v>
+      </c>
+      <c r="R3" s="5">
+        <v>8.9270833333333304</v>
+      </c>
+      <c r="S3" s="5">
+        <v>11.662251655629101</v>
+      </c>
+      <c r="T3" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="U3" s="19">
+        <v>9.3953488372092995</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="5">
+        <v>9.3953488372092995</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1673</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1540</v>
+      </c>
+      <c r="J4" s="24">
+        <v>848</v>
+      </c>
+      <c r="K4" s="5">
+        <v>944</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3597.8621210000001</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3597.83475</v>
+      </c>
+      <c r="N4" s="12">
+        <v>3329.2233649999998</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2184.6403849999901</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2209.3376699999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>10.425544917498399</v>
+      </c>
+      <c r="R4" s="5">
+        <v>11.850236730625401</v>
+      </c>
+      <c r="S4" s="5">
+        <v>12.6872574385511</v>
+      </c>
+      <c r="T4" s="24">
+        <v>11.138724911452099</v>
+      </c>
+      <c r="U4" s="5">
+        <v>10.507478081485299</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="5">
+        <v>11.138724911452099</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="26">
+        <v>177</v>
+      </c>
+      <c r="H5" s="5">
+        <v>613</v>
+      </c>
+      <c r="I5" s="5">
+        <v>831</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2157</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2091</v>
+      </c>
+      <c r="L5" s="29">
+        <v>389.96141</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1528.399011</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1715.69234799999</v>
+      </c>
+      <c r="O5" s="12">
+        <v>3598.58502</v>
+      </c>
+      <c r="P5" s="12">
+        <v>3598.4168749999999</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>13.498127340823901</v>
+      </c>
+      <c r="R5" s="5">
+        <v>14.825465838509301</v>
+      </c>
+      <c r="S5" s="5">
+        <v>6.2653458915232196</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3.51332849289492</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3.3685652769622201</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="5">
+        <v>13.498127340823901</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>615</v>
+      </c>
+      <c r="H6" s="5">
+        <v>479</v>
+      </c>
+      <c r="I6" s="32">
+        <v>497</v>
+      </c>
+      <c r="J6" s="5">
+        <v>694</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2413</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1996.148203</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1072.909457</v>
+      </c>
+      <c r="N6" s="34">
+        <v>861.18478200000004</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1117.4773869999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>3596.501855</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>12.011318619128399</v>
+      </c>
+      <c r="R6" s="5">
+        <v>10.913068181818099</v>
+      </c>
+      <c r="S6" s="32">
+        <v>6.9025590551181102</v>
+      </c>
+      <c r="T6" s="5">
+        <v>6.3388096714197104</v>
+      </c>
+      <c r="U6" s="5">
+        <v>6.44129078911687</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5">
+        <v>6.9025590551181102</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>638</v>
+      </c>
+      <c r="H7" s="36">
+        <v>186</v>
+      </c>
+      <c r="I7" s="5">
+        <v>243</v>
+      </c>
+      <c r="J7" s="5">
+        <v>331</v>
+      </c>
+      <c r="K7" s="5">
+        <v>297</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2429.849224</v>
+      </c>
+      <c r="M7" s="37">
+        <v>1358.8377969999999</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3598.218292</v>
+      </c>
+      <c r="O7" s="12">
+        <v>3598.3278850000002</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3598.3471460000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>24.029048207663699</v>
+      </c>
+      <c r="R7" s="36">
+        <v>20.115429917549999</v>
+      </c>
+      <c r="S7" s="5">
+        <v>8.2888329135180498</v>
+      </c>
+      <c r="T7" s="5">
+        <v>4.3812224322621196</v>
+      </c>
+      <c r="U7" s="5">
+        <v>3.6102403343782599</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="5">
+        <v>20.115429917549999</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4">
-        <v>638</v>
-      </c>
-      <c r="H2" s="12">
-        <v>186</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1748</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1760</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1678</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1326</v>
+      </c>
+      <c r="K8" s="20">
+        <v>539</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3597.4483019999998</v>
+      </c>
+      <c r="M8" s="10">
+        <v>3597.7253380000002</v>
+      </c>
+      <c r="N8" s="10">
+        <v>3597.8418270000002</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2793.3084880000001</v>
+      </c>
+      <c r="P8" s="21">
+        <v>1277.882386</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>18.632422668773899</v>
+      </c>
+      <c r="R8" s="2">
+        <v>22.884966674895001</v>
+      </c>
+      <c r="S8" s="2">
+        <v>22.524609843937501</v>
+      </c>
+      <c r="T8" s="2">
+        <v>18.852609727164801</v>
+      </c>
+      <c r="U8" s="20">
+        <v>17.237376366475701</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="2">
+        <v>17.237376366475701</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4">
+        <v>109</v>
+      </c>
+      <c r="H9" s="5">
+        <v>78</v>
+      </c>
+      <c r="I9" s="5">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5">
+        <v>52</v>
+      </c>
+      <c r="K9" s="19">
+        <v>29</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3598.772387</v>
+      </c>
+      <c r="M9" s="12">
+        <v>3598.744029</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2076.952945</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3598.7128640000001</v>
+      </c>
+      <c r="P9" s="22">
+        <v>303.61978099999999</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>6.5669515669515599</v>
+      </c>
+      <c r="R9" s="5">
+        <v>7.8875502008032097</v>
+      </c>
+      <c r="S9" s="5">
+        <v>10.373015873015801</v>
+      </c>
+      <c r="T9" s="5">
+        <v>9.5368421052631493</v>
+      </c>
+      <c r="U9" s="19">
+        <v>9.6904761904761898</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="5">
+        <v>9.6904761904761898</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1517</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1357</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1487</v>
+      </c>
+      <c r="J10" s="5">
+        <v>865</v>
+      </c>
+      <c r="K10" s="19">
+        <v>621</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3597.9574750000002</v>
+      </c>
+      <c r="M10" s="12">
+        <v>3597.7985170000002</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3597.9666080000002</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1976.0314450000001</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1581.771135</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>10.808232684249401</v>
+      </c>
+      <c r="R10" s="5">
+        <v>13.1249591102387</v>
+      </c>
+      <c r="S10" s="5">
+        <v>12.449547668754301</v>
+      </c>
+      <c r="T10" s="5">
+        <v>11.2535211267605</v>
+      </c>
+      <c r="U10" s="19">
+        <v>10.585122699386501</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="5">
+        <v>10.585122699386501</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4">
+        <v>276</v>
+      </c>
+      <c r="H11" s="5">
+        <v>292</v>
+      </c>
+      <c r="I11" s="5">
+        <v>812</v>
+      </c>
+      <c r="J11" s="24">
+        <v>257</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1744</v>
+      </c>
+      <c r="L11" s="11">
+        <v>651.28538500000002</v>
+      </c>
+      <c r="M11" s="12">
+        <v>626.44566399999997</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1504.5558019999901</v>
+      </c>
+      <c r="O11" s="25">
+        <v>465.84884799999998</v>
+      </c>
+      <c r="P11" s="12">
+        <v>2967.8273549999999</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>19.202020202020201</v>
+      </c>
+      <c r="R11" s="5">
+        <v>13.651972157772599</v>
+      </c>
+      <c r="S11" s="5">
+        <v>7.3242978445460398</v>
+      </c>
+      <c r="T11" s="24">
+        <v>4.1805970149253699</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3.4011582581579201</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="5">
+        <v>4.1805970149253699</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1105</v>
+      </c>
+      <c r="H12" s="5">
+        <v>532</v>
+      </c>
+      <c r="I12" s="32">
+        <v>490</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2409</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2282</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2629.6885299999999</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1580.5119870000001</v>
+      </c>
+      <c r="N12" s="34">
+        <v>999.16989100000001</v>
+      </c>
+      <c r="O12" s="12">
+        <v>3596.4626910000002</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3585.2168360000001</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>12.977341900574899</v>
+      </c>
+      <c r="R12" s="5">
+        <v>10.428326670474</v>
+      </c>
+      <c r="S12" s="32">
+        <v>6.9131652661064402</v>
+      </c>
+      <c r="T12" s="5">
+        <v>6.7549038098830598</v>
+      </c>
+      <c r="U12" s="5">
+        <v>6.7091506521955502</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="5">
+        <v>6.9131652661064402</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4">
+        <v>403</v>
+      </c>
+      <c r="H13" s="5">
+        <v>275</v>
+      </c>
+      <c r="I13" s="32">
+        <v>242</v>
+      </c>
+      <c r="J13" s="5">
+        <v>242</v>
+      </c>
+      <c r="K13" s="5">
+        <v>348</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1826.356687</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1301.4169629999999</v>
+      </c>
+      <c r="N13" s="34">
+        <v>1112.8710249999999</v>
+      </c>
+      <c r="O13" s="12">
+        <v>3598.4689669999998</v>
+      </c>
+      <c r="P13" s="12">
+        <v>3598.4362780000001</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>24.3930197268588</v>
+      </c>
+      <c r="R13" s="5">
+        <v>20.972375690607699</v>
+      </c>
+      <c r="S13" s="32">
+        <v>8.7008797653958894</v>
+      </c>
+      <c r="T13" s="5">
+        <v>4.8213166144200601</v>
+      </c>
+      <c r="U13" s="5">
+        <v>3.6091485507246301</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="5">
+        <v>8.7008797653958894</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1858</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1781</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1666</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1664</v>
+      </c>
+      <c r="K14" s="20">
+        <v>976</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3597.7855089999998</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3597.9339960000002</v>
+      </c>
+      <c r="N14" s="10">
+        <v>3597.7299630000002</v>
+      </c>
+      <c r="O14" s="10">
+        <v>3597.9072369999999</v>
+      </c>
+      <c r="P14" s="21">
+        <v>2238.803985</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>18.778591214879299</v>
+      </c>
+      <c r="R14" s="2">
+        <v>21.7838650023116</v>
+      </c>
+      <c r="S14" s="2">
+        <v>22.7888377445339</v>
+      </c>
+      <c r="T14" s="2">
+        <v>18.819300699300701</v>
+      </c>
+      <c r="U14" s="20">
+        <v>16.9164748438013</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="2">
+        <v>16.9164748438013</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4">
+        <v>106</v>
+      </c>
+      <c r="H15" s="5">
+        <v>107</v>
+      </c>
+      <c r="I15" s="5">
+        <v>71</v>
+      </c>
+      <c r="J15" s="5">
+        <v>58</v>
+      </c>
+      <c r="K15" s="19">
+        <v>30</v>
+      </c>
+      <c r="L15" s="11">
+        <v>3598.7436929999999</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3598.6817999999998</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2029.5320319999901</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1356.9315449999999</v>
+      </c>
+      <c r="P15" s="22">
+        <v>298.27634599999999</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>8.5370370370370292</v>
+      </c>
+      <c r="R15" s="5">
+        <v>8.9957983193277293</v>
+      </c>
+      <c r="S15" s="5">
+        <v>11.6478873239436</v>
+      </c>
+      <c r="T15" s="5">
+        <v>12.481132075471599</v>
+      </c>
+      <c r="U15" s="19">
+        <v>9.3777777777777693</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="5">
+        <v>9.3777777777777693</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1491</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1589</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1418</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1318</v>
+      </c>
+      <c r="K16" s="19">
+        <v>915</v>
+      </c>
+      <c r="L16" s="11">
+        <v>3598.0229519999998</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3597.814003</v>
+      </c>
+      <c r="N16" s="12">
+        <v>3280.209535</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2843.0386170000002</v>
+      </c>
+      <c r="P16" s="22">
+        <v>2100.0979560000001</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>10.9128848346636</v>
+      </c>
+      <c r="R16" s="5">
+        <v>12.406605019815</v>
+      </c>
+      <c r="S16" s="5">
+        <v>12.6228328426562</v>
+      </c>
+      <c r="T16" s="5">
+        <v>12.145737085258199</v>
+      </c>
+      <c r="U16" s="19">
+        <v>11.294713160854799</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="5">
+        <v>11.294713160854799</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4">
+        <v>630</v>
+      </c>
+      <c r="H17" s="5">
+        <v>764</v>
+      </c>
+      <c r="I17" s="5">
+        <v>821</v>
+      </c>
+      <c r="J17" s="24">
+        <v>312</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1879</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1541.1097239999999</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1696.080305</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1560.1096889999999</v>
+      </c>
+      <c r="O17" s="25">
+        <v>553.89710100000002</v>
+      </c>
+      <c r="P17" s="12">
+        <v>3233.4712920000002</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>19.452233676975901</v>
+      </c>
+      <c r="R17" s="5">
+        <v>11.2981220657277</v>
+      </c>
+      <c r="S17" s="5">
+        <v>5.75340393343419</v>
+      </c>
+      <c r="T17" s="24">
+        <v>4.2415364583333304</v>
+      </c>
+      <c r="U17" s="5">
+        <v>3.4003405342130399</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="5">
+        <v>4.2415364583333304</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4">
+        <v>859</v>
+      </c>
+      <c r="H18" s="5">
+        <v>533</v>
+      </c>
+      <c r="I18" s="32">
+        <v>486</v>
+      </c>
+      <c r="J18" s="5">
+        <v>626</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2415</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2551.3285059999998</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1286.293011</v>
+      </c>
+      <c r="N18" s="34">
+        <v>969.25833299999999</v>
+      </c>
+      <c r="O18" s="12">
+        <v>1042.7193629999999</v>
+      </c>
+      <c r="P18" s="12">
+        <v>3596.4329809999999</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>11.8141349242771</v>
+      </c>
+      <c r="R18" s="5">
+        <v>10.0575757575757</v>
+      </c>
+      <c r="S18" s="32">
+        <v>6.9125987912598701</v>
+      </c>
+      <c r="T18" s="5">
+        <v>6.29451809387316</v>
+      </c>
+      <c r="U18" s="5">
+        <v>6.4008669430833001</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="5">
+        <v>6.9125987912598701</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4">
         <v>243</v>
       </c>
-      <c r="J2" s="5">
-        <v>331</v>
-      </c>
-      <c r="K2" s="5">
-        <v>297</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2429.849224</v>
-      </c>
-      <c r="M2" s="11">
-        <v>1358.8377969999999</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3598.218292</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3598.3278850000002</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3598.3471460000001</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>24.029048207663699</v>
-      </c>
-      <c r="R2" s="12">
-        <v>20.115429917549999</v>
-      </c>
-      <c r="S2" s="5">
-        <v>8.2888329135180498</v>
-      </c>
-      <c r="T2" s="5">
-        <v>4.3812224322621196</v>
-      </c>
-      <c r="U2" s="5">
-        <v>3.6102403343782599</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="6">
-        <v>20.115429917549999</v>
+      <c r="H19" s="36">
+        <v>150</v>
+      </c>
+      <c r="I19" s="5">
+        <v>198</v>
+      </c>
+      <c r="J19" s="5">
+        <v>283</v>
+      </c>
+      <c r="K19" s="5">
+        <v>332</v>
+      </c>
+      <c r="L19" s="11">
+        <v>979.77916600000003</v>
+      </c>
+      <c r="M19" s="37">
+        <v>838.50463000000002</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1190.5647739999999</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1633.3546710000001</v>
+      </c>
+      <c r="P19" s="12">
+        <v>3598.3889260000001</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>22.404145077720202</v>
+      </c>
+      <c r="R19" s="36">
+        <v>19.713754646840101</v>
+      </c>
+      <c r="S19" s="5">
+        <v>11.9465753424657</v>
+      </c>
+      <c r="T19" s="5">
+        <v>4.9681851048445402</v>
+      </c>
+      <c r="U19" s="5">
+        <v>3.6288061865635499</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="5">
+        <v>19.713754646840101</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="4" t="s">
+    <row r="20" spans="1:24">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1655</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1759</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1741</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1350</v>
+      </c>
+      <c r="K20" s="20">
+        <v>728</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3597.8168300000002</v>
+      </c>
+      <c r="M20" s="10">
+        <v>3597.6919029999999</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3597.7126010000002</v>
+      </c>
+      <c r="O20" s="10">
+        <v>3212.3012859999999</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1843.7679209999999</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>18.474250000000001</v>
+      </c>
+      <c r="R20" s="2">
+        <v>20.973991031390099</v>
+      </c>
+      <c r="S20" s="2">
+        <v>23.015920129519699</v>
+      </c>
+      <c r="T20" s="2">
+        <v>19.191765044629999</v>
+      </c>
+      <c r="U20" s="20">
+        <v>15.415012942191501</v>
+      </c>
+      <c r="V20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="W20" s="2">
+        <v>15.415012942191501</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4">
+        <v>124</v>
+      </c>
+      <c r="H21" s="5">
+        <v>111</v>
+      </c>
+      <c r="I21" s="5">
+        <v>68</v>
+      </c>
+      <c r="J21" s="5">
+        <v>39</v>
+      </c>
+      <c r="K21" s="19">
+        <v>30</v>
+      </c>
+      <c r="L21" s="11">
+        <v>3598.7335990000001</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3598.6790740000001</v>
+      </c>
+      <c r="N21" s="12">
+        <v>3598.469861</v>
+      </c>
+      <c r="O21" s="12">
+        <v>3598.6709689999998</v>
+      </c>
+      <c r="P21" s="22">
+        <v>318.09884199999999</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>6.8758389261744899</v>
+      </c>
+      <c r="R21" s="5">
+        <v>7.9691629955947096</v>
+      </c>
+      <c r="S21" s="5">
+        <v>10.8707482993197</v>
+      </c>
+      <c r="T21" s="5">
+        <v>7.98529411764705</v>
+      </c>
+      <c r="U21" s="19">
+        <v>9.9047619047618998</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="5">
+        <v>9.9047619047618998</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1313</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1661</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1914</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1632</v>
+      </c>
+      <c r="K22" s="19">
+        <v>646</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3597.8195169999999</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3597.8580940000002</v>
+      </c>
+      <c r="N22" s="12">
+        <v>3598.016623</v>
+      </c>
+      <c r="O22" s="12">
+        <v>3597.7785650000001</v>
+      </c>
+      <c r="P22" s="22">
+        <v>1620.7241329999999</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>11.428608992900299</v>
+      </c>
+      <c r="R22" s="5">
+        <v>11.665867944621899</v>
+      </c>
+      <c r="S22" s="5">
+        <v>13.069111852076301</v>
+      </c>
+      <c r="T22" s="5">
+        <v>11.297562626946499</v>
+      </c>
+      <c r="U22" s="19">
+        <v>9.8946153846153795</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="5">
+        <v>9.8946153846153795</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4">
+        <v>353</v>
+      </c>
+      <c r="H23" s="36">
+        <v>284</v>
+      </c>
+      <c r="I23" s="5">
+        <v>494</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1172</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1034</v>
+      </c>
+      <c r="L23" s="11">
+        <v>838.02524900000003</v>
+      </c>
+      <c r="M23" s="37">
+        <v>600.54924499999902</v>
+      </c>
+      <c r="N23" s="12">
+        <v>1018.450302</v>
+      </c>
+      <c r="O23" s="12">
+        <v>2249.0404290000001</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1830.7973460000001</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>15.777659574468</v>
+      </c>
+      <c r="R23" s="36">
+        <v>14.290137614678899</v>
+      </c>
+      <c r="S23" s="5">
+        <v>6.12164383561643</v>
+      </c>
+      <c r="T23" s="5">
+        <v>3.5880135695439099</v>
+      </c>
+      <c r="U23" s="5">
+        <v>3.3776893870909399</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="5">
+        <v>14.290137614678899</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4">
+        <v>646</v>
+      </c>
+      <c r="H24" s="36">
+        <v>527</v>
+      </c>
+      <c r="I24" s="5">
+        <v>807</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2068</v>
+      </c>
+      <c r="K24" s="5">
+        <v>832</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1839.6904070000001</v>
+      </c>
+      <c r="M24" s="37">
+        <v>1296.1009899999999</v>
+      </c>
+      <c r="N24" s="12">
+        <v>1506.9926370000001</v>
+      </c>
+      <c r="O24" s="12">
+        <v>3246.9034769999998</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1416.660717</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>12.218576195773</v>
+      </c>
+      <c r="R24" s="36">
+        <v>10.0219611848825</v>
+      </c>
+      <c r="S24" s="5">
+        <v>6.8035550107263196</v>
+      </c>
+      <c r="T24" s="5">
+        <v>6.6647373107747097</v>
+      </c>
+      <c r="U24" s="5">
+        <v>6.4060312331717801</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="5">
+        <v>10.0219611848825</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4">
+        <v>258</v>
+      </c>
+      <c r="H25" s="5">
+        <v>206</v>
+      </c>
+      <c r="I25" s="32">
+        <v>209</v>
+      </c>
+      <c r="J25" s="5">
+        <v>348</v>
+      </c>
+      <c r="K25" s="5">
+        <v>350</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1631.1020430000001</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1520.610226</v>
+      </c>
+      <c r="N25" s="34">
+        <v>1411.2773029999901</v>
+      </c>
+      <c r="O25" s="12">
+        <v>3598.240425</v>
+      </c>
+      <c r="P25" s="12">
+        <v>3598.3414290000001</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>23.9869960988296</v>
+      </c>
+      <c r="R25" s="5">
+        <v>21.082460732984199</v>
+      </c>
+      <c r="S25" s="32">
+        <v>11.597238204833101</v>
+      </c>
+      <c r="T25" s="5">
+        <v>4.9703745108999398</v>
+      </c>
+      <c r="U25" s="5">
+        <v>3.67375565610859</v>
+      </c>
+      <c r="V25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="5">
+        <v>11.597238204833101</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="13">
-        <v>177</v>
-      </c>
-      <c r="H3" s="5">
-        <v>613</v>
-      </c>
-      <c r="I3" s="5">
-        <v>831</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2157</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2091</v>
-      </c>
-      <c r="L3" s="13">
-        <v>389.96141</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1528.399011</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1715.69234799999</v>
-      </c>
-      <c r="O3" s="5">
-        <v>3598.58502</v>
-      </c>
-      <c r="P3" s="5">
-        <v>3598.4168749999999</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>13.498127340823901</v>
-      </c>
-      <c r="R3" s="5">
-        <v>14.825465838509301</v>
-      </c>
-      <c r="S3" s="5">
-        <v>6.2653458915232196</v>
-      </c>
-      <c r="T3" s="5">
-        <v>3.51332849289492</v>
-      </c>
-      <c r="U3" s="5">
-        <v>3.3685652769622201</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="6">
-        <v>13.498127340823901</v>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1891</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1811</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1810</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1278</v>
+      </c>
+      <c r="K26" s="20">
+        <v>896</v>
+      </c>
+      <c r="L26" s="9">
+        <v>3597.7414239999998</v>
+      </c>
+      <c r="M26" s="10">
+        <v>3597.7874390000002</v>
+      </c>
+      <c r="N26" s="10">
+        <v>3597.8847139999998</v>
+      </c>
+      <c r="O26" s="10">
+        <v>2845.4840300000001</v>
+      </c>
+      <c r="P26" s="21">
+        <v>1857.2399479999999</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>18.9049149338374</v>
+      </c>
+      <c r="R26" s="2">
+        <v>21.616410488245901</v>
+      </c>
+      <c r="S26" s="2">
+        <v>24.0093526950529</v>
+      </c>
+      <c r="T26" s="2">
+        <v>19.069338422391802</v>
+      </c>
+      <c r="U26" s="20">
+        <v>17.103401360544201</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="2">
+        <v>17.103401360544201</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="4" t="s">
+    <row r="27" spans="1:24">
+      <c r="A27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4">
-        <v>86</v>
-      </c>
-      <c r="H4" s="5">
-        <v>90</v>
-      </c>
-      <c r="I4" s="5">
-        <v>87</v>
-      </c>
-      <c r="J4" s="5">
-        <v>37</v>
-      </c>
-      <c r="K4" s="15">
-        <v>29</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3598.7679629999998</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2191.832437</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3598.6946509999998</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3457.450621</v>
-      </c>
-      <c r="P4" s="15">
-        <v>273.337671</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>7.6452830188679197</v>
-      </c>
-      <c r="R4" s="5">
-        <v>8.9270833333333304</v>
-      </c>
-      <c r="S4" s="5">
-        <v>11.662251655629101</v>
-      </c>
-      <c r="T4" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="U4" s="15">
-        <v>9.3953488372092995</v>
-      </c>
-      <c r="V4" s="14" t="s">
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4">
+        <v>114</v>
+      </c>
+      <c r="H27" s="5">
+        <v>115</v>
+      </c>
+      <c r="I27" s="5">
+        <v>54</v>
+      </c>
+      <c r="J27" s="5">
+        <v>53</v>
+      </c>
+      <c r="K27" s="19">
         <v>30</v>
       </c>
-      <c r="W4" s="6">
-        <v>9.3953488372092995</v>
+      <c r="L27" s="11">
+        <v>3598.5762009999999</v>
+      </c>
+      <c r="M27" s="12">
+        <v>3598.7104469999999</v>
+      </c>
+      <c r="N27" s="12">
+        <v>3598.654689</v>
+      </c>
+      <c r="O27" s="12">
+        <v>3598.6045720000002</v>
+      </c>
+      <c r="P27" s="22">
+        <v>313.52018399999997</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>7.4313725490196001</v>
+      </c>
+      <c r="R27" s="5">
+        <v>8.2977777777777693</v>
+      </c>
+      <c r="S27" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="T27" s="5">
+        <v>11.4766355140186</v>
+      </c>
+      <c r="U27" s="19">
+        <v>9.6744186046511604</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="5">
+        <v>9.6744186046511604</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1670</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1899</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1819</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1522</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1592</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3597.6468049999999</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3597.656293</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3597.702655</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3597.6139109999999</v>
-      </c>
-      <c r="P5" s="15">
-        <v>3367.3739929999902</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>19.022808815991699</v>
-      </c>
-      <c r="R5" s="5">
-        <v>22.408717105263101</v>
-      </c>
-      <c r="S5" s="5">
-        <v>22.570501622161199</v>
-      </c>
-      <c r="T5" s="5">
-        <v>19.3378684807256</v>
-      </c>
-      <c r="U5" s="15">
-        <v>18.733505154639101</v>
-      </c>
-      <c r="V5" s="14" t="s">
+    <row r="28" spans="1:24">
+      <c r="A28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="6">
-        <v>18.733505154639101</v>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1601</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1448</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1571</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1285</v>
+      </c>
+      <c r="K28" s="19">
+        <v>833</v>
+      </c>
+      <c r="L28" s="11">
+        <v>3597.8953769999998</v>
+      </c>
+      <c r="M28" s="12">
+        <v>3597.9991460000001</v>
+      </c>
+      <c r="N28" s="12">
+        <v>3284.731945</v>
+      </c>
+      <c r="O28" s="12">
+        <v>2992.1518270000001</v>
+      </c>
+      <c r="P28" s="22">
+        <v>2018.0987500000001</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>10.959165557035</v>
+      </c>
+      <c r="R28" s="5">
+        <v>12.3368998628257</v>
+      </c>
+      <c r="S28" s="5">
+        <v>12.0783989414488</v>
+      </c>
+      <c r="T28" s="5">
+        <v>11.867924528301799</v>
+      </c>
+      <c r="U28" s="19">
+        <v>10.871570344424899</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="5">
+        <v>10.871570344424899</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="4" t="s">
+    <row r="29" spans="1:24">
+      <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1673</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1706</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1540</v>
-      </c>
-      <c r="J6" s="17">
-        <v>848</v>
-      </c>
-      <c r="K6" s="5">
-        <v>944</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3597.8621210000001</v>
-      </c>
-      <c r="M6" s="5">
-        <v>3597.83475</v>
-      </c>
-      <c r="N6" s="5">
-        <v>3329.2233649999998</v>
-      </c>
-      <c r="O6" s="17">
-        <v>2184.6403849999901</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2209.3376699999999</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>10.425544917498399</v>
-      </c>
-      <c r="R6" s="5">
-        <v>11.850236730625401</v>
-      </c>
-      <c r="S6" s="5">
-        <v>12.6872574385511</v>
-      </c>
-      <c r="T6" s="17">
-        <v>11.138724911452099</v>
-      </c>
-      <c r="U6" s="5">
-        <v>10.507478081485299</v>
-      </c>
-      <c r="V6" s="16" t="s">
+      <c r="B29" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="26">
+        <v>199</v>
+      </c>
+      <c r="H29" s="5">
+        <v>269</v>
+      </c>
+      <c r="I29" s="5">
+        <v>381</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1911</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1982</v>
+      </c>
+      <c r="L29" s="29">
+        <v>434.775125</v>
+      </c>
+      <c r="M29" s="12">
+        <v>593.56660799999997</v>
+      </c>
+      <c r="N29" s="12">
+        <v>763.42954399999996</v>
+      </c>
+      <c r="O29" s="12">
+        <v>3510.5220439999998</v>
+      </c>
+      <c r="P29" s="12">
+        <v>3363.2573949999901</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>13.532208588956999</v>
+      </c>
+      <c r="R29" s="5">
+        <v>13.487723214285699</v>
+      </c>
+      <c r="S29" s="5">
+        <v>6.2681924882629101</v>
+      </c>
+      <c r="T29" s="5">
+        <v>3.6022686567164102</v>
+      </c>
+      <c r="U29" s="5">
+        <v>3.39008982331457</v>
+      </c>
+      <c r="V29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="6">
-        <v>11.138724911452099</v>
+      <c r="W29" s="5">
+        <v>13.532208588956999</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="7" t="s">
+    <row r="30" spans="1:24">
+      <c r="A30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7">
-        <v>615</v>
-      </c>
-      <c r="H7" s="8">
-        <v>479</v>
-      </c>
-      <c r="I7" s="19">
-        <v>497</v>
-      </c>
-      <c r="J7" s="8">
-        <v>694</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2413</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1996.148203</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1072.909457</v>
-      </c>
-      <c r="N7" s="19">
-        <v>861.18478200000004</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1117.4773869999999</v>
-      </c>
-      <c r="P7" s="8">
-        <v>3596.501855</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>12.011318619128399</v>
-      </c>
-      <c r="R7" s="8">
-        <v>10.913068181818099</v>
-      </c>
-      <c r="S7" s="19">
-        <v>6.9025590551181102</v>
-      </c>
-      <c r="T7" s="8">
-        <v>6.3388096714197104</v>
-      </c>
-      <c r="U7" s="8">
-        <v>6.44129078911687</v>
-      </c>
-      <c r="V7" s="18" t="s">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1087</v>
+      </c>
+      <c r="H30" s="5">
+        <v>875</v>
+      </c>
+      <c r="I30" s="32">
+        <v>426</v>
+      </c>
+      <c r="J30" s="5">
+        <v>917</v>
+      </c>
+      <c r="K30" s="5">
+        <v>853</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2639.4438359999999</v>
+      </c>
+      <c r="M30" s="12">
+        <v>2011.7834399999999</v>
+      </c>
+      <c r="N30" s="34">
+        <v>730.66406599999902</v>
+      </c>
+      <c r="O30" s="12">
+        <v>1522.325163</v>
+      </c>
+      <c r="P30" s="12">
+        <v>1385.271563</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>11.188746438746399</v>
+      </c>
+      <c r="R30" s="5">
+        <v>9.21505376344086</v>
+      </c>
+      <c r="S30" s="32">
+        <v>7.0979812900049204</v>
+      </c>
+      <c r="T30" s="5">
+        <v>6.53128804480155</v>
+      </c>
+      <c r="U30" s="5">
+        <v>6.3655536028119499</v>
+      </c>
+      <c r="V30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="9">
-        <v>6.9025590551181102</v>
+      <c r="W30" s="5">
+        <v>7.0979812900049204</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="27">
+        <v>199</v>
+      </c>
+      <c r="H31" s="7">
+        <v>178</v>
+      </c>
+      <c r="I31" s="7">
+        <v>548</v>
+      </c>
+      <c r="J31" s="7">
+        <v>343</v>
+      </c>
+      <c r="K31" s="7">
+        <v>293</v>
+      </c>
+      <c r="L31" s="28">
+        <v>750.83757800000001</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1494.2984779999999</v>
+      </c>
+      <c r="N31" s="13">
+        <v>3598.438302</v>
+      </c>
+      <c r="O31" s="13">
+        <v>3598.5071029999999</v>
+      </c>
+      <c r="P31" s="13">
+        <v>3598.24431</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>24.793462109955399</v>
+      </c>
+      <c r="R31" s="7">
+        <v>20.4279279279279</v>
+      </c>
+      <c r="S31" s="7">
+        <v>9.6212435233160605</v>
+      </c>
+      <c r="T31" s="7">
+        <v>5.1988338192419796</v>
+      </c>
+      <c r="U31" s="7">
+        <v>3.6448790530108002</v>
+      </c>
+      <c r="V31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="7">
+        <v>24.793462109955399</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
